--- a/LeftHemis_val_FULL_modality_Only_Part_2.xlsx
+++ b/LeftHemis_val_FULL_modality_Only_Part_2.xlsx
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.800000011920929</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8999999761581421</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -550,16 +550,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="D6" t="n">
-        <v>0.555555522441864</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.555555522441864</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="F6" t="n">
         <v>0.6666666269302368</v>
@@ -573,16 +573,16 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.611111044883728</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="D7" t="n">
         <v>0.7777777314186096</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="F7" t="n">
-        <v>0.555555522441864</v>
+        <v>0.8333332538604736</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6666666865348816</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.800000011920929</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.800000011920929</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8999999761581421</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.800000011920929</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -970,10 +970,10 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>0.800000011920929</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1130,19 +1130,19 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2000000029802322</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.800000011920929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>0.8999999761581421</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1290,7 +1290,7 @@
         <v>85</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1310,10 +1310,10 @@
         <v>86</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1000000014901161</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="D44" t="n">
         <v>0.8999999761581421</v>
@@ -1330,13 +1330,13 @@
         <v>87</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>91</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1410,16 +1410,16 @@
         <v>93</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="C52" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0.8999999761581421</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1493,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.699999988079071</v>
+        <v>0.800000011920929</v>
       </c>
     </row>
     <row r="58">
@@ -1590,7 +1590,7 @@
         <v>104</v>
       </c>
       <c r="B58" t="n">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1633,16 +1633,16 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.699999988079071</v>
+        <v>0.800000011920929</v>
       </c>
     </row>
     <row r="61">
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -2053,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0.8999999761581421</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>163</v>
       </c>
       <c r="B86" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="C86" t="n">
         <v>0.9444444179534912</v>
@@ -2159,7 +2159,7 @@
         <v>0.6666666269302368</v>
       </c>
       <c r="E86" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="F86" t="n">
         <v>0.6666666269302368</v>
@@ -2176,13 +2176,13 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="E87" t="n">
         <v>0.7777777314186096</v>
       </c>
       <c r="F87" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7222221493721008</v>
       </c>
     </row>
     <row r="88">
@@ -2210,7 +2210,7 @@
         <v>166</v>
       </c>
       <c r="B89" t="n">
-        <v>0.555555522441864</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="C89" t="n">
         <v>0.7777777314186096</v>
@@ -2222,7 +2222,7 @@
         <v>0.6666666269302368</v>
       </c>
       <c r="F89" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7777777314186096</v>
       </c>
     </row>
     <row r="90">
@@ -2390,7 +2390,7 @@
         <v>197</v>
       </c>
       <c r="B98" t="n">
-        <v>0.699999988079071</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -2510,7 +2510,7 @@
         <v>205</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>0.800000011920929</v>
@@ -2610,7 +2610,7 @@
         <v>217</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2000000029802322</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>0.8999999761581421</v>
       </c>
       <c r="C117" t="n">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="C119" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="D119" t="n">
         <v>0.7777777314186096</v>
@@ -2822,7 +2822,7 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5</v>
+        <v>0.8888888359069824</v>
       </c>
     </row>
     <row r="120">
@@ -2830,13 +2830,13 @@
         <v>231</v>
       </c>
       <c r="B120" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="E120" t="n">
         <v>0.8888888359069824</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2879,10 +2879,10 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="E122" t="n">
-        <v>0.611111044883728</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="F122" t="n">
-        <v>0.555555522441864</v>
+        <v>0.6666666269302368</v>
       </c>
     </row>
     <row r="123">
@@ -3039,7 +3039,7 @@
         <v>0.8999999761581421</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2000000029802322</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -3293,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3310,7 +3310,7 @@
         <v>294</v>
       </c>
       <c r="B144" t="n">
-        <v>0.2000000029802322</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3533,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2000000029802322</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -4030,16 +4030,16 @@
         <v>360</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.8999999761581421</v>
       </c>
     </row>
     <row r="185">
@@ -4193,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0.699999988079071</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="D188" t="n">
-        <v>0.699999988079071</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -4259,7 +4259,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="E191" t="n">
-        <v>0.2000000029802322</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -4270,10 +4270,10 @@
         <v>372</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0.300000011920929</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -4282,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4000000059604645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.2000000029802322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4590,7 +4590,7 @@
         <v>394</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -4733,13 +4733,13 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="C215" t="n">
-        <v>0.5</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="D215" t="n">
         <v>0.7777777314186096</v>
       </c>
       <c r="E215" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="F215" t="n">
         <v>0.9444444179534912</v>
@@ -4810,7 +4810,7 @@
         <v>405</v>
       </c>
       <c r="B219" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="C219" t="n">
         <v>0.9999999403953552</v>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -5230,19 +5230,19 @@
         <v>428</v>
       </c>
       <c r="B240" t="n">
-        <v>0.2000000029802322</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
       </c>
       <c r="F240" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.1000000014901161</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
         <v>0.8999999761581421</v>
@@ -5350,7 +5350,7 @@
         <v>435</v>
       </c>
       <c r="B246" t="n">
-        <v>0.5</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="C246" t="n">
         <v>0.9999999403953552</v>
@@ -5359,7 +5359,7 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="E246" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="F246" t="n">
         <v>0.7777777314186096</v>
@@ -5390,7 +5390,7 @@
         <v>437</v>
       </c>
       <c r="B248" t="n">
-        <v>0.611111044883728</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="C248" t="n">
         <v>0.7222221493721008</v>
@@ -5399,7 +5399,7 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="E248" t="n">
-        <v>0.555555522441864</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="F248" t="n">
         <v>0.7222221493721008</v>
@@ -5419,7 +5419,7 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="E249" t="n">
-        <v>0.5</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="F249" t="n">
         <v>0.9999999403953552</v>
@@ -5516,13 +5516,13 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="D254" t="n">
-        <v>0.611111044883728</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="E254" t="n">
-        <v>0.611111044883728</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="F254" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7222221493721008</v>
       </c>
     </row>
     <row r="255">
@@ -5539,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5555555820465088</v>
+        <v>0.8888888955116272</v>
       </c>
       <c r="F255" t="n">
         <v>1</v>
@@ -5550,10 +5550,10 @@
         <v>445</v>
       </c>
       <c r="B256" t="n">
-        <v>0.5</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="C256" t="n">
-        <v>0.5</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="D256" t="n">
         <v>0.9444444179534912</v>
@@ -5562,7 +5562,7 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="F256" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8333332538604736</v>
       </c>
     </row>
     <row r="257">
@@ -5630,10 +5630,10 @@
         <v>450</v>
       </c>
       <c r="B260" t="n">
-        <v>0.555555522441864</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="C260" t="n">
-        <v>0.611111044883728</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="D260" t="n">
         <v>0.8333332538604736</v>
@@ -5670,7 +5670,7 @@
         <v>452</v>
       </c>
       <c r="B262" t="n">
-        <v>0.6000000238418579</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="D265" t="n">
         <v>1</v>
@@ -5750,7 +5750,7 @@
         <v>456</v>
       </c>
       <c r="B266" t="n">
-        <v>0.5</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="C266" t="n">
         <v>0.8333332538604736</v>
@@ -5762,7 +5762,7 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="F266" t="n">
-        <v>0.555555522441864</v>
+        <v>0.8888888359069824</v>
       </c>
     </row>
     <row r="267">
@@ -5810,7 +5810,7 @@
         <v>460</v>
       </c>
       <c r="B269" t="n">
-        <v>0.611111044883728</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="C269" t="n">
         <v>0.7222221493721008</v>
@@ -5862,7 +5862,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="F271" t="n">
-        <v>0.4999999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="272">
@@ -5899,7 +5899,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="E273" t="n">
-        <v>0.6249999403953552</v>
+        <v>0.9374999403953552</v>
       </c>
       <c r="F273" t="n">
         <v>0.9374999403953552</v>
@@ -5939,7 +5939,7 @@
         <v>0.6875</v>
       </c>
       <c r="E275" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="F275" t="n">
         <v>0.6875</v>
@@ -5999,7 +5999,7 @@
         <v>0.9444444179534912</v>
       </c>
       <c r="E278" t="n">
-        <v>0.611111044883728</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F278" t="n">
         <v>0.9444444179534912</v>
@@ -6010,7 +6010,7 @@
         <v>471</v>
       </c>
       <c r="B279" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -6022,7 +6022,7 @@
         <v>0.75</v>
       </c>
       <c r="F279" t="n">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="280">
@@ -6033,13 +6033,13 @@
         <v>0.875</v>
       </c>
       <c r="C280" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="D280" t="n">
         <v>0.75</v>
       </c>
       <c r="E280" t="n">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
       <c r="F280" t="n">
         <v>0.875</v>
@@ -6050,7 +6050,7 @@
         <v>473</v>
       </c>
       <c r="B281" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="C281" t="n">
         <v>0.8333332538604736</v>
@@ -6082,7 +6082,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="F282" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7222221493721008</v>
       </c>
     </row>
     <row r="283">
@@ -6090,7 +6090,7 @@
         <v>475</v>
       </c>
       <c r="B283" t="n">
-        <v>0.555555522441864</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="C283" t="n">
         <v>0.9444444179534912</v>
@@ -6122,7 +6122,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="F284" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8888888359069824</v>
       </c>
     </row>
     <row r="285">
@@ -6150,19 +6150,19 @@
         <v>478</v>
       </c>
       <c r="B286" t="n">
-        <v>0.555555522441864</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="C286" t="n">
         <v>0.8888888359069824</v>
       </c>
       <c r="D286" t="n">
-        <v>0.5</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="E286" t="n">
-        <v>0.5</v>
+        <v>0.6666666269302368</v>
       </c>
       <c r="F286" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.9444444179534912</v>
       </c>
     </row>
     <row r="287">

--- a/LeftHemis_val_FULL_modality_Only_Part_2.xlsx
+++ b/LeftHemis_val_FULL_modality_Only_Part_2.xlsx
@@ -556,13 +556,13 @@
         <v>0.7222221493721008</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="E6" t="n">
         <v>0.7777777314186096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.8888888359069824</v>
       </c>
     </row>
     <row r="7">
@@ -570,16 +570,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="D7" t="n">
         <v>0.7777777314186096</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="F7" t="n">
         <v>0.8333332538604736</v>
@@ -2093,13 +2093,13 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.8333332538604736</v>
       </c>
       <c r="D83" t="n">
         <v>0.8333332538604736</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7777777314186096</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="F83" t="n">
         <v>0.9999999403953552</v>
@@ -2150,19 +2150,19 @@
         <v>163</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="C86" t="n">
         <v>0.9444444179534912</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="E86" t="n">
         <v>0.8333332538604736</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7222221493721008</v>
       </c>
     </row>
     <row r="87">
@@ -2210,7 +2210,7 @@
         <v>166</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="C89" t="n">
         <v>0.7777777314186096</v>
@@ -2219,7 +2219,7 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="F89" t="n">
         <v>0.7777777314186096</v>
@@ -2833,10 +2833,10 @@
         <v>0.8333332538604736</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7777777314186096</v>
+        <v>0.8888888359069824</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7777777314186096</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="E120" t="n">
         <v>0.8888888359069824</v>
@@ -2879,10 +2879,10 @@
         <v>0.7777777314186096</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7222221493721008</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.7222221493721008</v>
       </c>
     </row>
     <row r="123">
@@ -5413,13 +5413,13 @@
         <v>0.8888888359069824</v>
       </c>
       <c r="C249" t="n">
-        <v>0.7777777314186096</v>
+        <v>0.9444444179534912</v>
       </c>
       <c r="D249" t="n">
         <v>0.8333332538604736</v>
       </c>
       <c r="E249" t="n">
-        <v>0.7222221493721008</v>
+        <v>0.7777777314186096</v>
       </c>
       <c r="F249" t="n">
         <v>0.9999999403953552</v>
@@ -6159,7 +6159,7 @@
         <v>0.9999999403953552</v>
       </c>
       <c r="E286" t="n">
-        <v>0.6666666269302368</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F286" t="n">
         <v>0.9444444179534912</v>
@@ -6173,10 +6173,10 @@
         <v>0.9374999403953552</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8124999403953552</v>
+        <v>0.8749999403953552</v>
       </c>
       <c r="D287" t="n">
-        <v>0.8749999403953552</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="E287" t="n">
         <v>0.9999999403953552</v>
